--- a/pred_ohlcv/54_21/2020-01-25 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 REP ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-918.3423000000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-918.3423000000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-917.7423000000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-935.3823000000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-869.2995000000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-870.5749000000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-864.6529159974507</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-833.8131159974507</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-839.7351159974507</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-621.8815159974507</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-653.5099159974507</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-581.4853159974507</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-597.3952159974507</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-640.3959159974506</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-604.8747159974506</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-902.8298159974506</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-902.7968159974506</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-902.7638159974506</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-903.3766159974506</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-981.9985159974506</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-953.7577159974505</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-953.7577159974505</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-856.019540793433</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-860.333640793433</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-729.255431565561</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-729.255431565561</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>3304.811930336434</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>3942.242230336434</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>3869.873430336434</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3766.156130336434</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>3919.486830336434</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4072.144630336434</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>4114.968530336434</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3938.187130336434</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3697.110730336434</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3245.624930336434</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3050.004030336434</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>3050.051230336434</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>2931.044330336435</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2802.751230336435</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2868.781730336435</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2584.863330336435</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2802.008830336435</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4657.376154077449</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-4656.046154077449</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-4770.928454077449</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3130.421554077448</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-3358.990865086141</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-3361.924865086141</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4305.379665086142</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4305.379665086142</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4315.379665086142</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3121.647665086142</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 REP ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-918.3423000000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-918.3423000000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-917.7423000000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-935.3823000000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-869.2995000000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-870.5749000000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-864.6529159974507</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-833.8131159974507</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-839.7351159974507</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-621.8815159974507</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-653.5099159974507</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-581.4853159974507</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-597.3952159974507</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-640.3959159974506</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-604.8747159974506</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-902.8298159974506</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-902.7968159974506</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-902.7638159974506</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-903.3766159974506</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-981.9985159974506</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-953.7577159974505</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-953.7577159974505</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-856.019540793433</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-860.333640793433</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-729.255431565561</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-729.255431565561</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>3304.811930336434</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4072.216730336434</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>3942.242230336434</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>3869.873430336434</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3766.156130336434</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>3919.486830336434</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4072.144630336434</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>4114.968530336434</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3938.187130336434</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3697.110730336434</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3245.624930336434</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3050.004030336434</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>2931.044330336435</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2802.751230336435</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2868.781730336435</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-4770.928454077449</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3130.421554077448</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-3361.990865086141</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-3361.924865086141</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4305.379665086142</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4315.379665086142</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3121.647665086142</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
